--- a/score_results/HMresults.xlsx
+++ b/score_results/HMresults.xlsx
@@ -500,25 +500,25 @@
         <v>302.7075771849053</v>
       </c>
       <c r="D2" t="n">
-        <v>5319.217752936716</v>
+        <v>3412.076616659728</v>
       </c>
       <c r="E2" t="n">
-        <v>131.4428168213361</v>
+        <v>85.52776499445832</v>
       </c>
       <c r="F2" t="n">
         <v>9305.011780647301</v>
       </c>
       <c r="G2" t="n">
-        <v>4458.944103790482</v>
+        <v>8546.896916971251</v>
       </c>
       <c r="H2" t="n">
         <v>9305.094045834723</v>
       </c>
       <c r="I2" t="n">
-        <v>8998.792220528001</v>
+        <v>9097.284084168492</v>
       </c>
       <c r="J2" t="n">
-        <v>10.6385273167921</v>
+        <v>8.890742053188429</v>
       </c>
     </row>
     <row r="3">
@@ -536,25 +536,25 @@
         <v>221.2433320983488</v>
       </c>
       <c r="D3" t="n">
-        <v>3530.791304326109</v>
+        <v>2448.632895836679</v>
       </c>
       <c r="E3" t="n">
-        <v>147.5158114385921</v>
+        <v>72.52625601471445</v>
       </c>
       <c r="F3" t="n">
         <v>7160.731393697739</v>
       </c>
       <c r="G3" t="n">
-        <v>3569.395160361606</v>
+        <v>4937.145521798047</v>
       </c>
       <c r="H3" t="n">
         <v>7161.550341752863</v>
       </c>
       <c r="I3" t="n">
-        <v>6942.557392447865</v>
+        <v>6983.205758019581</v>
       </c>
       <c r="J3" t="n">
-        <v>10.60732334264882</v>
+        <v>8.867792070319661</v>
       </c>
     </row>
     <row r="4">
@@ -572,25 +572,25 @@
         <v>200.3863176479143</v>
       </c>
       <c r="D4" t="n">
-        <v>6261.388737916383</v>
+        <v>3628.765118777102</v>
       </c>
       <c r="E4" t="n">
-        <v>205.4896216236</v>
+        <v>85.46071455695115</v>
       </c>
       <c r="F4" t="n">
-        <v>9808.895882357601</v>
+        <v>9808.895882357603</v>
       </c>
       <c r="G4" t="n">
-        <v>6669.548032155269</v>
+        <v>9017.189488743094</v>
       </c>
       <c r="H4" t="n">
         <v>9808.183334351626</v>
       </c>
       <c r="I4" t="n">
-        <v>9657.315998316033</v>
+        <v>9483.872891126895</v>
       </c>
       <c r="J4" t="n">
-        <v>9.87829069519667</v>
+        <v>8.430984159606989</v>
       </c>
     </row>
     <row r="5">
@@ -608,25 +608,25 @@
         <v>1603.223039443617</v>
       </c>
       <c r="D5" t="n">
-        <v>3854.817043689382</v>
+        <v>3452.980853203393</v>
       </c>
       <c r="E5" t="n">
-        <v>278.5684589229939</v>
+        <v>150.3873033317514</v>
       </c>
       <c r="F5" t="n">
         <v>7546.419931889002</v>
       </c>
       <c r="G5" t="n">
-        <v>3586.827338855677</v>
+        <v>6045.069710514573</v>
       </c>
       <c r="H5" t="n">
         <v>7547.239493817145</v>
       </c>
       <c r="I5" t="n">
-        <v>6942.174425491654</v>
+        <v>6942.174425491653</v>
       </c>
       <c r="J5" t="n">
-        <v>11.62345030492646</v>
+        <v>9.907495525542663</v>
       </c>
     </row>
     <row r="6">
@@ -644,25 +644,25 @@
         <v>0.3722566432486274</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7774633025162058</v>
+        <v>0.9048338183105743</v>
       </c>
       <c r="E6" t="n">
-        <v>3.507100027490957</v>
+        <v>2.08001308681964</v>
       </c>
       <c r="F6" t="n">
         <v>0.891639435017483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7577424816305992</v>
+        <v>0.8703280686268385</v>
       </c>
       <c r="H6" t="n">
         <v>0.8895213759393502</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9599904382973934</v>
+        <v>0.9393092799937368</v>
       </c>
       <c r="J6" t="n">
-        <v>1.817506634736891</v>
+        <v>1.793442955041089</v>
       </c>
     </row>
     <row r="7">
@@ -680,25 +680,25 @@
         <v>0.2426529121010623</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9189475229074219</v>
+        <v>0.7707965554184399</v>
       </c>
       <c r="E7" t="n">
-        <v>2.745422825491678</v>
+        <v>1.951442623834043</v>
       </c>
       <c r="F7" t="n">
         <v>0.9777163547046319</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8458385889859747</v>
+        <v>1.081332204077017</v>
       </c>
       <c r="H7" t="n">
         <v>0.9789210989022098</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9848655524014328</v>
+        <v>0.9897008098559567</v>
       </c>
       <c r="J7" t="n">
-        <v>1.860841871294075</v>
+        <v>2.086735153750192</v>
       </c>
     </row>
     <row r="8">
@@ -716,25 +716,25 @@
         <v>0.5169029697737905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9229099949931906</v>
+        <v>0.6914265621254142</v>
       </c>
       <c r="E8" t="n">
-        <v>1.891533981293797</v>
+        <v>1.825431913563003</v>
       </c>
       <c r="F8" t="n">
         <v>0.9454546022977456</v>
       </c>
       <c r="G8" t="n">
-        <v>0.83226680315738</v>
+        <v>0.9580540776899505</v>
       </c>
       <c r="H8" t="n">
         <v>0.9453051029920841</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9775662711206404</v>
+        <v>0.9920096431970823</v>
       </c>
       <c r="J8" t="n">
-        <v>1.839144357294241</v>
+        <v>1.780075656007402</v>
       </c>
     </row>
     <row r="9">
@@ -752,16 +752,16 @@
         <v>0.4672401837761537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7027665712453207</v>
+        <v>0.6040783437209196</v>
       </c>
       <c r="E9" t="n">
-        <v>1.728907814863972</v>
+        <v>2.006377181867628</v>
       </c>
       <c r="F9" t="n">
         <v>0.9537139738668391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.681920460291361</v>
+        <v>0.8345533978172878</v>
       </c>
       <c r="H9" t="n">
         <v>0.9499240715175293</v>
@@ -770,7 +770,7 @@
         <v>1.002771383018125</v>
       </c>
       <c r="J9" t="n">
-        <v>1.910723000469513</v>
+        <v>1.917516335182463</v>
       </c>
     </row>
     <row r="10">
@@ -788,25 +788,25 @@
         <v>0.8877050795986381</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3837481221743381</v>
+        <v>0.3183247679031559</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5142150826792036</v>
+        <v>0.3620978814534987</v>
       </c>
       <c r="F10" t="n">
         <v>0.3823211453519559</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3637807982571968</v>
+        <v>0.3892050636598206</v>
       </c>
       <c r="H10" t="n">
         <v>0.3828492042521351</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3480515623840291</v>
+        <v>0.3597917466340153</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04238543651103131</v>
+        <v>-0.05117587563381883</v>
       </c>
     </row>
     <row r="11">
@@ -824,25 +824,25 @@
         <v>0.8353838956095794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3186107353867392</v>
+        <v>0.3879184964324056</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4344494377514642</v>
+        <v>0.2860793806831297</v>
       </c>
       <c r="F11" t="n">
         <v>0.3421680728308225</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3924627449532429</v>
+        <v>0.3553612836947205</v>
       </c>
       <c r="H11" t="n">
         <v>0.3416898588512407</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3229694684296279</v>
+        <v>0.3219102427680587</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04251671142004245</v>
+        <v>-0.05265577048203654</v>
       </c>
     </row>
     <row r="12">
@@ -860,25 +860,25 @@
         <v>0.6208850536235201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3242377910886363</v>
+        <v>0.3134369268471831</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4874577668876197</v>
+        <v>0.3525600219847627</v>
       </c>
       <c r="F12" t="n">
         <v>0.3547025765341768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3199870691663958</v>
+        <v>0.3554433030724157</v>
       </c>
       <c r="H12" t="n">
         <v>0.3544454055087202</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3398998121804474</v>
+        <v>0.3299882559131402</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03565754954507479</v>
+        <v>-0.06302278426481947</v>
       </c>
     </row>
     <row r="13">
@@ -896,16 +896,16 @@
         <v>0.6960107666881815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4255570143985886</v>
+        <v>0.466161197650368</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3985215205560208</v>
+        <v>0.2887283672237545</v>
       </c>
       <c r="F13" t="n">
         <v>0.3604341704326903</v>
       </c>
       <c r="G13" t="n">
-        <v>0.446144623607641</v>
+        <v>0.4092593518050376</v>
       </c>
       <c r="H13" t="n">
         <v>0.3619390878530176</v>
@@ -914,7 +914,7 @@
         <v>0.3137082650586418</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03798039617509368</v>
+        <v>-0.06339365617759807</v>
       </c>
     </row>
   </sheetData>

--- a/score_results/HMresults.xlsx
+++ b/score_results/HMresults.xlsx
@@ -500,25 +500,25 @@
         <v>302.7075771849053</v>
       </c>
       <c r="D2" t="n">
-        <v>3412.076616659728</v>
+        <v>4146.874315817037</v>
       </c>
       <c r="E2" t="n">
-        <v>85.52776499445832</v>
+        <v>186.8304311818266</v>
       </c>
       <c r="F2" t="n">
         <v>9305.011780647301</v>
       </c>
       <c r="G2" t="n">
-        <v>8546.896916971251</v>
+        <v>4442.693681415892</v>
       </c>
       <c r="H2" t="n">
-        <v>9305.094045834723</v>
+        <v>9304.974974189952</v>
       </c>
       <c r="I2" t="n">
         <v>9097.284084168492</v>
       </c>
       <c r="J2" t="n">
-        <v>8.890742053188429</v>
+        <v>14.4321022527198</v>
       </c>
     </row>
     <row r="3">
@@ -536,25 +536,25 @@
         <v>221.2433320983488</v>
       </c>
       <c r="D3" t="n">
-        <v>2448.632895836679</v>
+        <v>3286.683156255836</v>
       </c>
       <c r="E3" t="n">
-        <v>72.52625601471445</v>
+        <v>94.81824158573717</v>
       </c>
       <c r="F3" t="n">
         <v>7160.731393697739</v>
       </c>
       <c r="G3" t="n">
-        <v>4937.145521798047</v>
+        <v>3579.047778920759</v>
       </c>
       <c r="H3" t="n">
-        <v>7161.550341752863</v>
+        <v>7161.54081335226</v>
       </c>
       <c r="I3" t="n">
-        <v>6983.205758019581</v>
+        <v>6942.557392447864</v>
       </c>
       <c r="J3" t="n">
-        <v>8.867792070319661</v>
+        <v>12.89718821790952</v>
       </c>
     </row>
     <row r="4">
@@ -572,25 +572,25 @@
         <v>200.3863176479143</v>
       </c>
       <c r="D4" t="n">
-        <v>3628.765118777102</v>
+        <v>6926.15767068417</v>
       </c>
       <c r="E4" t="n">
-        <v>85.46071455695115</v>
+        <v>40.14759862920397</v>
       </c>
       <c r="F4" t="n">
         <v>9808.895882357603</v>
       </c>
       <c r="G4" t="n">
-        <v>9017.189488743094</v>
+        <v>7028.19129695308</v>
       </c>
       <c r="H4" t="n">
-        <v>9808.183334351626</v>
+        <v>9808.850716037739</v>
       </c>
       <c r="I4" t="n">
-        <v>9483.872891126895</v>
+        <v>9666.625180572273</v>
       </c>
       <c r="J4" t="n">
-        <v>8.430984159606989</v>
+        <v>15.69071868915703</v>
       </c>
     </row>
     <row r="5">
@@ -608,25 +608,25 @@
         <v>1603.223039443617</v>
       </c>
       <c r="D5" t="n">
-        <v>3452.980853203393</v>
+        <v>6186.756245286005</v>
       </c>
       <c r="E5" t="n">
-        <v>150.3873033317514</v>
+        <v>107.7635125572526</v>
       </c>
       <c r="F5" t="n">
         <v>7546.419931889002</v>
       </c>
       <c r="G5" t="n">
-        <v>6045.069710514573</v>
+        <v>3640.723660540802</v>
       </c>
       <c r="H5" t="n">
-        <v>7547.239493817145</v>
+        <v>7547.220757434538</v>
       </c>
       <c r="I5" t="n">
-        <v>6942.174425491653</v>
+        <v>7096.487608708856</v>
       </c>
       <c r="J5" t="n">
-        <v>9.907495525542663</v>
+        <v>15.66643435596195</v>
       </c>
     </row>
     <row r="6">
@@ -644,25 +644,25 @@
         <v>0.3722566432486274</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9048338183105743</v>
+        <v>0.7690825802739473</v>
       </c>
       <c r="E6" t="n">
-        <v>2.08001308681964</v>
+        <v>3.051722798494415</v>
       </c>
       <c r="F6" t="n">
         <v>0.891639435017483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8703280686268385</v>
+        <v>0.7568677774183493</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8895213759393502</v>
+        <v>0.888715220106682</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9393092799937368</v>
+        <v>0.9393092799937367</v>
       </c>
       <c r="J6" t="n">
-        <v>1.793442955041089</v>
+        <v>2.129704540801456</v>
       </c>
     </row>
     <row r="7">
@@ -680,25 +680,25 @@
         <v>0.2426529121010623</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7707965554184399</v>
+        <v>0.7666611570986309</v>
       </c>
       <c r="E7" t="n">
-        <v>1.951442623834043</v>
+        <v>2.529182184849751</v>
       </c>
       <c r="F7" t="n">
         <v>0.9777163547046319</v>
       </c>
       <c r="G7" t="n">
-        <v>1.081332204077017</v>
+        <v>0.846898399021773</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9789210989022098</v>
+        <v>0.9789184561028753</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9897008098559567</v>
+        <v>0.984865552401433</v>
       </c>
       <c r="J7" t="n">
-        <v>2.086735153750192</v>
+        <v>2.007755975099105</v>
       </c>
     </row>
     <row r="8">
@@ -716,25 +716,25 @@
         <v>0.5169029697737905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6914265621254142</v>
+        <v>1.20655728776498</v>
       </c>
       <c r="E8" t="n">
-        <v>1.825431913563003</v>
+        <v>2.512515285220361</v>
       </c>
       <c r="F8" t="n">
         <v>0.9454546022977456</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9580540776899505</v>
+        <v>0.8437119082023522</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9453051029920841</v>
+        <v>0.9457226861692455</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9920096431970823</v>
+        <v>0.9776852006437501</v>
       </c>
       <c r="J8" t="n">
-        <v>1.780075656007402</v>
+        <v>1.895248954573898</v>
       </c>
     </row>
     <row r="9">
@@ -752,25 +752,25 @@
         <v>0.4672401837761537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6040783437209196</v>
+        <v>0.8167975968845197</v>
       </c>
       <c r="E9" t="n">
-        <v>2.006377181867628</v>
+        <v>2.449192948001768</v>
       </c>
       <c r="F9" t="n">
         <v>0.9537139738668391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8345533978172878</v>
+        <v>0.6959510782092093</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9499240715175293</v>
+        <v>0.9500395496498818</v>
       </c>
       <c r="I9" t="n">
-        <v>1.002771383018125</v>
+        <v>1.015490729240544</v>
       </c>
       <c r="J9" t="n">
-        <v>1.917516335182463</v>
+        <v>2.025260235735864</v>
       </c>
     </row>
     <row r="10">
@@ -788,25 +788,25 @@
         <v>0.8877050795986381</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3183247679031559</v>
+        <v>0.3358660197338317</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3620978814534987</v>
+        <v>0.6821169157550556</v>
       </c>
       <c r="F10" t="n">
         <v>0.3823211453519559</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3892050636598206</v>
+        <v>0.3640856965912624</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3828492042521351</v>
+        <v>0.3831845319538438</v>
       </c>
       <c r="I10" t="n">
         <v>0.3597917466340153</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.05117587563381883</v>
+        <v>-0.09075950273201708</v>
       </c>
     </row>
     <row r="11">
@@ -824,25 +824,25 @@
         <v>0.8353838956095794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3879184964324056</v>
+        <v>0.3943977783457857</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2860793806831297</v>
+        <v>0.5063339357092675</v>
       </c>
       <c r="F11" t="n">
         <v>0.3421680728308225</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3553612836947205</v>
+        <v>0.3920117438792098</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3416898588512407</v>
+        <v>0.3416298164514626</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3219102427680587</v>
+        <v>0.3229694684296279</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.05265577048203654</v>
+        <v>-0.0730003751297684</v>
       </c>
     </row>
     <row r="12">
@@ -860,25 +860,25 @@
         <v>0.6208850536235201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3134369268471831</v>
+        <v>0.2695305832552281</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3525600219847627</v>
+        <v>0.6595847264445419</v>
       </c>
       <c r="F12" t="n">
         <v>0.3547025765341768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3554433030724157</v>
+        <v>0.3260787183378303</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3544454055087202</v>
+        <v>0.3547589978278559</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3299882559131402</v>
+        <v>0.3411667381822717</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.06302278426481947</v>
+        <v>-0.04986371510947554</v>
       </c>
     </row>
     <row r="13">
@@ -896,25 +896,25 @@
         <v>0.6960107666881815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.466161197650368</v>
+        <v>0.350138942298825</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2887283672237545</v>
+        <v>0.7282920393896606</v>
       </c>
       <c r="F13" t="n">
         <v>0.3604341704326903</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4092593518050376</v>
+        <v>0.4394649313811935</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3619390878530176</v>
+        <v>0.3618266159619879</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3137082650586418</v>
+        <v>0.3150784487842366</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.06339365617759807</v>
+        <v>-0.07375744789691858</v>
       </c>
     </row>
   </sheetData>

--- a/score_results/HMresults.xlsx
+++ b/score_results/HMresults.xlsx
@@ -509,16 +509,16 @@
         <v>9305.011780647301</v>
       </c>
       <c r="G2" t="n">
-        <v>4442.693681415892</v>
+        <v>8546.96850817853</v>
       </c>
       <c r="H2" t="n">
-        <v>9304.974974189952</v>
+        <v>9304.868647501031</v>
       </c>
       <c r="I2" t="n">
         <v>9097.284084168492</v>
       </c>
       <c r="J2" t="n">
-        <v>14.4321022527198</v>
+        <v>14.90064859864064</v>
       </c>
     </row>
     <row r="3">
@@ -542,19 +542,19 @@
         <v>94.81824158573717</v>
       </c>
       <c r="F3" t="n">
-        <v>7160.731393697739</v>
+        <v>7160.731393697737</v>
       </c>
       <c r="G3" t="n">
-        <v>3579.047778920759</v>
+        <v>4438.735293653455</v>
       </c>
       <c r="H3" t="n">
-        <v>7161.54081335226</v>
+        <v>7161.380448904279</v>
       </c>
       <c r="I3" t="n">
-        <v>6942.557392447864</v>
+        <v>6975.850700704547</v>
       </c>
       <c r="J3" t="n">
-        <v>12.89718821790952</v>
+        <v>13.13905399820771</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>9808.895882357603</v>
       </c>
       <c r="G4" t="n">
-        <v>7028.19129695308</v>
+        <v>9054.732365647375</v>
       </c>
       <c r="H4" t="n">
-        <v>9808.850716037739</v>
+        <v>9808.787909976547</v>
       </c>
       <c r="I4" t="n">
-        <v>9666.625180572273</v>
+        <v>9518.188104290475</v>
       </c>
       <c r="J4" t="n">
-        <v>15.69071868915703</v>
+        <v>16.05323450868311</v>
       </c>
     </row>
     <row r="5">
@@ -617,16 +617,16 @@
         <v>7546.419931889002</v>
       </c>
       <c r="G5" t="n">
-        <v>3640.723660540802</v>
+        <v>6217.145942332181</v>
       </c>
       <c r="H5" t="n">
-        <v>7547.220757434538</v>
+        <v>7546.785182390295</v>
       </c>
       <c r="I5" t="n">
-        <v>7096.487608708856</v>
+        <v>6976.018188473491</v>
       </c>
       <c r="J5" t="n">
-        <v>15.66643435596195</v>
+        <v>16.09643392337485</v>
       </c>
     </row>
     <row r="6">
@@ -653,16 +653,16 @@
         <v>0.891639435017483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7568677774183493</v>
+        <v>0.8750004899811742</v>
       </c>
       <c r="H6" t="n">
-        <v>0.888715220106682</v>
+        <v>0.8890333706365251</v>
       </c>
       <c r="I6" t="n">
         <v>0.9393092799937367</v>
       </c>
       <c r="J6" t="n">
-        <v>2.129704540801456</v>
+        <v>2.327402416457952</v>
       </c>
     </row>
     <row r="7">
@@ -689,16 +689,16 @@
         <v>0.9777163547046319</v>
       </c>
       <c r="G7" t="n">
-        <v>0.846898399021773</v>
+        <v>1.157656563676175</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9789184561028753</v>
+        <v>0.9789353468010495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.984865552401433</v>
+        <v>0.9930770325180877</v>
       </c>
       <c r="J7" t="n">
-        <v>2.007755975099105</v>
+        <v>2.000230075664198</v>
       </c>
     </row>
     <row r="8">
@@ -725,16 +725,16 @@
         <v>0.9454546022977456</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8437119082023522</v>
+        <v>0.9542121954984474</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9457226861692455</v>
+        <v>0.9456429860154918</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9776852006437501</v>
+        <v>0.9862302751638791</v>
       </c>
       <c r="J8" t="n">
-        <v>1.895248954573898</v>
+        <v>1.885764230024157</v>
       </c>
     </row>
     <row r="9">
@@ -761,16 +761,16 @@
         <v>0.9537139738668391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6959510782092093</v>
+        <v>0.8874853727941178</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9500395496498818</v>
+        <v>0.9538621962470017</v>
       </c>
       <c r="I9" t="n">
-        <v>1.015490729240544</v>
+        <v>0.999367987527057</v>
       </c>
       <c r="J9" t="n">
-        <v>2.025260235735864</v>
+        <v>2.02774558288511</v>
       </c>
     </row>
     <row r="10">
@@ -797,16 +797,16 @@
         <v>0.3823211453519559</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3640856965912624</v>
+        <v>0.3883049210659126</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3831845319538438</v>
+        <v>0.3830418772898952</v>
       </c>
       <c r="I10" t="n">
         <v>0.3597917466340153</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.09075950273201708</v>
+        <v>-0.0794389589208551</v>
       </c>
     </row>
     <row r="11">
@@ -833,16 +833,16 @@
         <v>0.3421680728308225</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3920117438792098</v>
+        <v>0.3468458240890669</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3416298164514626</v>
+        <v>0.341427242379895</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3229694684296279</v>
+        <v>0.3208389538506887</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0730003751297684</v>
+        <v>-0.0629942877911861</v>
       </c>
     </row>
     <row r="12">
@@ -869,16 +869,16 @@
         <v>0.3547025765341768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3260787183378303</v>
+        <v>0.3565606088282706</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3547589978278559</v>
+        <v>0.3548484823444199</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3411667381822717</v>
+        <v>0.3324283332715181</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.04986371510947554</v>
+        <v>-0.03543655765330529</v>
       </c>
     </row>
     <row r="13">
@@ -905,16 +905,16 @@
         <v>0.3604341704326903</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4394649313811935</v>
+        <v>0.3982874311980857</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3618266159619879</v>
+        <v>0.3604685059922128</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3150784487842366</v>
+        <v>0.3169502498949598</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.07375744789691858</v>
+        <v>-0.06086553210301262</v>
       </c>
     </row>
   </sheetData>
